--- a/結合テスト/結合テスト_シナリオ一覧.xlsx
+++ b/結合テスト/結合テスト_シナリオ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://forest1net-my.sharepoint.com/personal/ota_forest1net_onmicrosoft_com/Documents/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3456CD99-3B61-4480-98C2-A1B89D42B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC3A729-585E-4EFC-A335-01DB5532E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="153">
   <si>
     <t>simplezakka結合テストシナリオ一覧</t>
     <phoneticPr fontId="1"/>
@@ -493,13 +493,22 @@
   </si>
   <si>
     <t>DBに存在する商品情報が、正しい形式&lt;List&lt;string&gt;&gt;uniqueCategoryNamesのJSONリストとして返却される (200 OK)。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4-2</t>
+  </si>
+  <si>
+    <t>DBに商品データが一件もない場合のカテゴリ名の表示</t>
+  </si>
+  <si>
+    <t>空のJSONリスト［］が返却される (200 OK)。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,11 +560,6 @@
       <color rgb="FF1D1C1D"/>
       <name val="Yu Gothic"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -694,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,15 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1136,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B58C232-3412-462C-AB01-3FF28E9C0C9E}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
@@ -1259,10 +1254,10 @@
       <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1274,10 +1269,10 @@
       <c r="B11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -1291,7 +1286,7 @@
       <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -1839,43 +1834,55 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45.75">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="24" t="s">
         <v>148</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
+    <row r="55" spans="1:7" ht="30.75">
+      <c r="A55" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>

--- a/結合テスト/結合テスト_シナリオ一覧.xlsx
+++ b/結合テスト/結合テスト_シナリオ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://forest1net-my.sharepoint.com/personal/ota_forest1net_onmicrosoft_com/Documents/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikumu.hiramoto\Downloads\Jobs\simplezakka\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC3A729-585E-4EFC-A335-01DB5532E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC6AB38-E75C-440E-AE38-D9ECFAF68244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D4AD0730-A377-4EF7-A1DB-6931266C35A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -554,12 +555,15 @@
       <sz val="11"/>
       <color rgb="FF1D1C1D"/>
       <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1D1C1D"/>
       <name val="Yu Gothic"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1129,20 +1133,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B58C232-3412-462C-AB01-3FF28E9C0C9E}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2"/>
-    <col min="3" max="3" width="52.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="2"/>
+    <col min="3" max="3" width="52.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="4" customWidth="1"/>
-    <col min="5" max="5" width="54.125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.625" style="3"/>
+    <col min="5" max="5" width="54.08203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.58203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1470,7 +1474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="54">
+    <row r="26" spans="1:5" ht="36">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72">
+    <row r="39" spans="1:5" ht="54">
       <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
@@ -1828,12 +1832,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75">
+    <row r="52" spans="1:7">
       <c r="A52" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75">
+    <row r="53" spans="1:7">
       <c r="A53" s="25" t="s">
         <v>2</v>
       </c>
@@ -1850,7 +1854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="45.75">
+    <row r="54" spans="1:7" ht="54">
       <c r="A54" s="21" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30.75">
+    <row r="55" spans="1:7" ht="36">
       <c r="A55" s="21" t="s">
         <v>27</v>
       </c>
@@ -1886,7 +1890,6 @@
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
